--- a/medicine/Mort/Cimetière_de_Kensico/Cimetière_de_Kensico.xlsx
+++ b/medicine/Mort/Cimetière_de_Kensico/Cimetière_de_Kensico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kensico</t>
+          <t>Cimetière_de_Kensico</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Kensico est un cimetière situé à Valhalla, dans le comté de Westchester, dans l'État de New York.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kensico</t>
+          <t>Cimetière_de_Kensico</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été fondé en 1889, lorsque de nombreux cimetières de New York devenaient pleins et que des cimetières ruraux étaient en cours de création à proximité des chemins de fer qui desservaient la ville[réf. nécessaire]. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kensico</t>
+          <t>Cimetière_de_Kensico</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La superficie initiale du cimetière est de 250 acres (1 km2), mais il a été agrandi à 600 acres (2,4 km2) en 1905, avant d'être réduit à 461 acres (1,9 km2) en 1912, lorsqu'une partie a été vendue au cimetière voisin de la Porte du Ciel[réf. nécessaire].
 Plusieurs joueurs de baseball sont enterrés dans ce cimetière. De nombreuses personnalités du divertissement du début du XXe siècle, dont Sergueï Rachmaninov, d'origine russe, y sont été enterrées[réf. nécessaire]. Le cimetière a une section spéciale pour les membres de l'Actors Fund of America et de la National Vaudeville Association[réf. nécessaire].
